--- a/ONCHO/Breeding Site Survey/Mozambique/mz_oncho_bsa_2_river_inspection_202211.xlsx
+++ b/ONCHO/Breeding Site Survey/Mozambique/mz_oncho_bsa_2_river_inspection_202211.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -88,16 +88,13 @@
     <t>r_province</t>
   </si>
   <si>
-    <t>Select Region </t>
+    <t>Region</t>
   </si>
   <si>
     <t>r_district</t>
   </si>
   <si>
-    <t>Select district   </t>
-  </si>
-  <si>
-    <t>region = ${r_province}</t>
+    <t>District</t>
   </si>
   <si>
     <t>r_site</t>
@@ -109,9 +106,6 @@
     <t>if(selected(${r_district}, 'Other'), false(),true())</t>
   </si>
   <si>
-    <t>district = ${r_district}</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -172,15 +166,18 @@
     <t>The value must be between 0 and 14</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>r_inspection_time</t>
   </si>
   <si>
     <t>What time was inspection.  </t>
   </si>
   <si>
+    <t>regex(., '^([0-1]?[0-9]|2[0-3]):[0-5][0-9]$')</t>
+  </si>
+  <si>
+    <t>exemple 13:25</t>
+  </si>
+  <si>
     <t>select_one yesno</t>
   </si>
   <si>
@@ -376,19 +373,13 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(November 2022) - 2. BSA river assessment form</t>
-  </si>
-  <si>
-    <t>mz_oncho_bsa_2_river_inspection_202211</t>
+    <t>(November 2022) - 2. BSA river assessment form V1</t>
+  </si>
+  <si>
+    <t>mz_oncho_bsa_2_river_inspection_202211_v1</t>
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>District</t>
   </si>
   <si>
     <t>Community</t>
@@ -436,6 +427,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -473,11 +472,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,18 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,8 +503,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,21 +521,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +535,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -558,22 +550,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,13 +599,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,19 +707,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,139 +731,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,26 +852,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,16 +888,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,149 +943,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,7 +1502,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1622,7 +1613,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.75" spans="1:13">
+    <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
@@ -1642,9 +1633,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="L4" s="21"/>
       <c r="M4" s="20"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
@@ -1652,37 +1641,35 @@
         <v>20</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="23"/>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="L5" s="21"/>
       <c r="M5" s="20"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
@@ -1699,13 +1686,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="15.75" spans="1:13">
       <c r="A7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="26"/>
@@ -1722,13 +1709,13 @@
     </row>
     <row r="8" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
@@ -1745,13 +1732,13 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="15.75" spans="1:13">
       <c r="A9" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="20"/>
@@ -1768,21 +1755,21 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
       <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1795,21 +1782,21 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1822,18 +1809,22 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="18" t="s">
@@ -1845,13 +1836,13 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="20"/>
@@ -1868,20 +1859,20 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A14" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="27"/>
       <c r="H14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="18" t="s">
@@ -1893,20 +1884,20 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="27"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="18" t="s">
@@ -1918,16 +1909,16 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="15.75" spans="1:13">
       <c r="A16" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -1941,10 +1932,10 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -1960,10 +1951,10 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:13">
       <c r="A18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -2018,7 +2009,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2027,105 +2018,105 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="3:3">
@@ -2133,24 +2124,24 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -2158,86 +2149,86 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -2245,380 +2236,380 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2628,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2649,27 +2640,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2702,25 +2693,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2728,22 +2719,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2751,22 +2742,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2774,19 +2765,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2794,19 +2785,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -2814,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -2828,13 +2819,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
@@ -2842,13 +2833,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
@@ -2856,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
@@ -2870,13 +2861,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -2884,13 +2875,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
@@ -2898,13 +2889,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
@@ -2912,13 +2903,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
@@ -2926,13 +2917,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -2940,13 +2931,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:4">
@@ -2954,13 +2945,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:4">
@@ -2968,13 +2959,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -2982,13 +2973,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:4">
@@ -2996,13 +2987,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:4">
@@ -3010,13 +3001,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:4">
@@ -3024,13 +3015,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -3038,13 +3029,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:4">
@@ -3052,13 +3043,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:4">
@@ -3066,13 +3057,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Breeding Site Survey/Mozambique/mz_oncho_bsa_2_river_inspection_202211.xlsx
+++ b/ONCHO/Breeding Site Survey/Mozambique/mz_oncho_bsa_2_river_inspection_202211.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>At time of inspection, did site provide evidence of larvae. </t>
   </si>
   <si>
-    <t>selected(${r_inspection_time}, 'Yes')</t>
+    <t>selected(${r_site_suitability}, 'Yes')</t>
   </si>
   <si>
     <t>select_one abundance</t>
@@ -373,10 +373,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(November 2022) - 2. BSA river assessment form V1</t>
-  </si>
-  <si>
-    <t>mz_oncho_bsa_2_river_inspection_202211_v1</t>
+    <t>(November 2022) - 2. BSA river assessment form V1.2</t>
+  </si>
+  <si>
+    <t>mz_oncho_bsa_2_river_inspection_202211_v1_2</t>
   </si>
   <si>
     <t>English</t>
@@ -390,10 +390,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -436,13 +436,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -450,8 +443,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,32 +466,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,7 +481,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -520,14 +542,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -535,7 +549,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,20 +564,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -572,7 +572,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,25 +599,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,151 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,11 +843,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,27 +867,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -898,6 +887,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,163 +930,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1497,12 +1497,12 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2627,14 +2627,14 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="44.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
